--- a/app_RobotSoftware/export/report_2023-04-25_11-39-33.xlsx
+++ b/app_RobotSoftware/export/report_2023-04-25_11-39-33.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="237">
   <si>
     <t>Date Time</t>
   </si>
@@ -696,9 +696,6 @@
     <t>SP0102</t>
   </si>
   <si>
-    <t>Size Error/Logo Ink Error</t>
-  </si>
-  <si>
     <t>25/04/2023 11:38:32</t>
   </si>
   <si>
@@ -706,9 +703,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>x (d)</t>
   </si>
   <si>
     <t>Số lượng</t>
@@ -801,7 +795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -824,21 +818,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -850,7 +835,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,13 +1178,13 @@
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1223,17 +1207,17 @@
         <v>11</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J2" s="6">
         <v>103</v>
       </c>
       <c r="K2" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L2" s="8">
         <f>(J2-K2)/J2</f>
-        <v>0.89320388349514568</v>
+        <v>0.93203883495145634</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1256,20 +1240,20 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J3" s="6">
         <v>51</v>
       </c>
       <c r="K3" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" ref="L3:L7" si="0">(J3-K3)/J3</f>
-        <v>0.88235294117647056</v>
+        <v>0.92156862745098034</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1292,17 +1276,17 @@
         <v>11</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J4" s="6">
         <v>52</v>
       </c>
       <c r="K4" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="0"/>
-        <v>0.90384615384615385</v>
+        <v>0.98076923076923073</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1325,7 +1309,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J5" s="6">
         <v>19</v>
@@ -1358,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J6" s="6">
         <v>17</v>
@@ -1391,20 +1375,20 @@
         <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J7" s="6">
         <v>16</v>
       </c>
       <c r="K7" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>0.8125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1415,7 +1399,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -1424,10 +1408,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>228</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1590,7 +1571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1609,9 +1590,8 @@
       <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -1631,7 +1611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1651,7 +1631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -1671,7 +1651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
@@ -1691,7 +1671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
@@ -1711,7 +1691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>57</v>
       </c>
@@ -1731,7 +1711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -1751,7 +1731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -1759,7 +1739,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
@@ -1768,13 +1748,10 @@
         <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -1794,7 +1771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>65</v>
       </c>
@@ -1814,7 +1791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>67</v>
       </c>
@@ -1834,7 +1811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>69</v>
       </c>
@@ -1854,7 +1831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>71</v>
       </c>
@@ -1874,7 +1851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -1894,7 +1871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -1914,7 +1891,7 @@
         <v>17</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2317,7 +2294,7 @@
         <v>17</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2540,7 +2517,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -3043,7 +3020,7 @@
         <v>192</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3145,9 +3122,6 @@
       <c r="F93" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G93" s="5" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
@@ -3166,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -3186,10 +3160,7 @@
         <v>10</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -3212,7 +3183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>210</v>
       </c>
@@ -3229,13 +3200,10 @@
         <v>16</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>212</v>
       </c>
@@ -3255,7 +3223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>214</v>
       </c>
@@ -3275,7 +3243,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>217</v>
       </c>
@@ -3295,7 +3263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>219</v>
       </c>
@@ -3315,7 +3283,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>221</v>
       </c>
@@ -3335,7 +3303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>223</v>
       </c>
@@ -3352,15 +3320,15 @@
         <v>16</v>
       </c>
       <c r="F103" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
+      <c r="B104" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>14</v>
